--- a/Running projects/EY 17th & 18th Floor - Dolmen Sky Tower Clifton Karachi/PO/001- Purchase order- for IIL pipe (EY + ABBOT + J outlet J icon).xlsx
+++ b/Running projects/EY 17th & 18th Floor - Dolmen Sky Tower Clifton Karachi/PO/001- Purchase order- for IIL pipe (EY + ABBOT + J outlet J icon).xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\EY 17th &amp; 18th Floor - Dolmen Sky Tower Clifton Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAE48E-F99A-4B35-8629-2FE1D63BBD98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F4131-8F36-4850-9B6B-89F6D14DE7C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master PO" sheetId="1" r:id="rId1"/>
     <sheet name="Phase 1 Delivery" sheetId="2" r:id="rId2"/>
+    <sheet name="actual received on phase 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Master PO'!$A$1:$G$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Phase 1 Delivery'!$A$1:$G$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Phase 1 Delivery'!$A$1:$G$99</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Master PO'!$17:$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Phase 1 Delivery'!#REF!</definedName>
   </definedNames>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="38">
   <si>
     <t>S No.</t>
   </si>
@@ -370,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -452,6 +453,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -467,18 +477,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1060,14 +1063,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>50347</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1134,13 +1137,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>727075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1189,13 +1192,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>150247</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>111122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1263,7 +1266,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7289800" cy="0"/>
@@ -1313,7 +1316,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7289800" cy="0"/>
@@ -1361,16 +1364,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>67241</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>124391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1393,7 +1396,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067676" y="2695575"/>
+          <a:off x="9163051" y="4352925"/>
           <a:ext cx="6248400" cy="4058216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1562,14 +1565,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1586,6 +1589,528 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13306425" y="10058400"/>
+          <a:ext cx="847725" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7289800" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50784B5-52F5-4237-97B3-1DF509331BB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="4029075"/>
+          <a:ext cx="7289800" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="7010400">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="7010400" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7289800" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC6BAD0-3EAC-4B7D-87D0-8CA8419FCFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="4438650"/>
+          <a:ext cx="7289800" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="7010400">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="7010400" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7289800" cy="0"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9209EFAB-F49C-48CE-89AA-68D2F56E025E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="6477000"/>
+          <a:ext cx="7289800" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="7010400">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="7010400" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105711</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4601AE03-980D-47FA-A3A1-BF6C1F0016A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1285875"/>
+          <a:ext cx="6706536" cy="6868484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0664582-CBC5-45DC-A440-3F67B484784D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="1438275"/>
+          <a:ext cx="7248525" cy="7258050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9A42DB-2232-4177-BA55-C7DF2DCB206C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9544051" y="9972675"/>
+          <a:ext cx="838199" cy="783772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1108069</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD933F74-988F-40CD-92FE-321B4B1CF398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1450969" y="219652"/>
+          <a:ext cx="4492630" cy="586798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1071232</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70832C8-F6DD-4F1D-9965-906EC0DCFF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="533400" y="76200"/>
+          <a:ext cx="880732" cy="749658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46FD981-C00C-4056-BE72-22D3582874BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1927,15 +2452,15 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
@@ -1947,28 +2472,28 @@
       <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
@@ -2189,12 +2714,12 @@
     <row r="23" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="18">
         <f>SUM(G18:G22)</f>
         <v>3010250.76</v>
@@ -2208,15 +2733,15 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
@@ -2562,12 +3087,12 @@
     <row r="34" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="18">
         <f>SUM(G27:G33)</f>
         <v>1399994.4</v>
@@ -2607,15 +3132,15 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
@@ -2767,12 +3292,12 @@
     <row r="41" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="18">
         <f>SUM(G38:G40)</f>
         <v>384654.06</v>
@@ -2790,12 +3315,12 @@
     <row r="42" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="18">
         <f>G41+G34+G23</f>
         <v>4794899.22</v>
@@ -2808,14 +3333,14 @@
       </c>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
       <c r="G43" s="19">
         <f>G42*7%</f>
         <v>335642.94540000003</v>
@@ -2824,14 +3349,14 @@
       <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="20">
         <f>G42-G43</f>
         <v>4459256.2746000001</v>
@@ -2840,14 +3365,14 @@
       <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
       <c r="G45" s="19">
         <f>G44*18%</f>
         <v>802666.12942799996</v>
@@ -2856,14 +3381,14 @@
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
       <c r="G46" s="20">
         <f>G45+G44</f>
         <v>5261922.4040280003</v>
@@ -2880,6 +3405,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="C23:F23"/>
@@ -2887,13 +3419,6 @@
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -2907,10 +3432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D7FCBA-AEE4-436A-879A-58DB68EA8EDF}">
-  <dimension ref="A14:X48"/>
+  <dimension ref="A69:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2924,905 +3449,1245 @@
     <col min="7" max="7" width="14" style="9" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="11"/>
-    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
     <col min="24" max="24" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="26" t="s">
+    <row r="69" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G69" s="27">
         <v>45799</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="26" t="s">
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+    </row>
+    <row r="70" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G70" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+    </row>
+    <row r="71" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+    </row>
+    <row r="72" spans="1:24" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="G72" s="10"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+    </row>
+    <row r="73" spans="1:24" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="36" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+    </row>
+    <row r="74" spans="1:24" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+    </row>
+    <row r="75" spans="1:24" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A75" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+    </row>
+    <row r="76" spans="1:24" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+    </row>
+    <row r="77" spans="1:24" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+    </row>
+    <row r="78" spans="1:24" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:24" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="36"/>
+    </row>
+    <row r="80" spans="1:24" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B80" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D80" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E80" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F80" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G80" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B81" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C81" s="6">
         <v>92</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="6">
-        <v>552</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="E81" s="6">
+        <v>137</v>
+      </c>
+      <c r="F81" s="17">
         <v>738.27</v>
       </c>
-      <c r="G26" s="21">
-        <f t="shared" ref="G26:G32" si="0">F26*E26</f>
-        <v>407525.04</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16">
+      <c r="G81" s="21">
+        <f t="shared" ref="G81:G87" si="0">F81*E81</f>
+        <v>101142.98999999999</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16">
         <v>1600</v>
       </c>
-      <c r="J26" s="22">
-        <f>I26/20</f>
+      <c r="J81" s="22">
+        <f>I81/20</f>
         <v>80</v>
       </c>
-      <c r="K26" s="22">
-        <f>J26*6</f>
+      <c r="K81" s="22">
+        <f>J81*6</f>
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="82" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>2</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B82" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C82" s="6">
         <v>28</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="6">
-        <v>168</v>
-      </c>
-      <c r="F27" s="17">
+      <c r="E82" s="6">
+        <f>168-30</f>
+        <v>138</v>
+      </c>
+      <c r="F82" s="17">
         <v>984.87</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G82" s="21">
         <f t="shared" si="0"/>
-        <v>165458.16</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16">
+        <v>135912.06</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16">
         <v>460</v>
       </c>
-      <c r="J27" s="22">
-        <f t="shared" ref="J27:J32" si="1">I27/20</f>
+      <c r="J82" s="22">
+        <f t="shared" ref="J82:J87" si="1">I82/20</f>
         <v>23</v>
       </c>
-      <c r="K27" s="22">
-        <f t="shared" ref="K27:K32" si="2">J27*6</f>
+      <c r="K82" s="22">
+        <f t="shared" ref="K82:K87" si="2">J82*6</f>
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="83" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
         <v>3</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B83" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C83" s="6">
         <v>13</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E83" s="6">
         <v>78</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F83" s="17">
         <v>1146.55</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G83" s="21">
         <f t="shared" si="0"/>
         <v>89430.9</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16">
+      <c r="H83" s="16"/>
+      <c r="I83" s="16">
         <v>250</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J83" s="22">
         <v>13</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K83" s="22">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="T28" s="22">
-        <f t="shared" ref="T28:T34" si="3">V28/6</f>
+      <c r="T83" s="22">
+        <f t="shared" ref="T83:T89" si="3">V83/6</f>
         <v>91.666666666666671</v>
       </c>
-      <c r="U28" s="17" t="s">
+      <c r="U83" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V83" s="17">
         <v>550</v>
       </c>
-      <c r="W28" s="17">
+      <c r="W83" s="17">
         <v>738.27</v>
       </c>
-      <c r="X28" s="17">
-        <f>W28*V28</f>
+      <c r="X83" s="17">
+        <f>W83*V83</f>
         <v>406048.5</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="84" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>4</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B84" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C84" s="6">
         <v>20</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E84" s="6">
         <v>120</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F84" s="17">
         <v>1535.8</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G84" s="21">
         <f t="shared" si="0"/>
         <v>184296</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16">
+      <c r="H84" s="16"/>
+      <c r="I84" s="16">
         <v>400</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J84" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K84" s="22">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T84" s="22">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U84" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="V29" s="17">
+      <c r="V84" s="17">
         <v>168</v>
       </c>
-      <c r="W29" s="17">
+      <c r="W84" s="17">
         <v>984.87</v>
       </c>
-      <c r="X29" s="17">
-        <f t="shared" ref="X29:X34" si="4">W29*V29</f>
+      <c r="X84" s="17">
+        <f t="shared" ref="X84:X89" si="4">W84*V84</f>
         <v>165458.16</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="85" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B85" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C85" s="6">
         <v>10</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E85" s="6">
         <v>60</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F85" s="17">
         <v>2500.52</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G85" s="21">
         <f t="shared" si="0"/>
         <v>150031.20000000001</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16">
+      <c r="H85" s="16"/>
+      <c r="I85" s="16">
         <v>200</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J85" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K85" s="22">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T85" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U85" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="V30" s="17">
+      <c r="V85" s="17">
         <v>78</v>
       </c>
-      <c r="W30" s="17">
+      <c r="W85" s="17">
         <v>1146.55</v>
       </c>
-      <c r="X30" s="17">
+      <c r="X85" s="17">
         <f t="shared" si="4"/>
         <v>89430.9</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="86" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>6</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B86" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C86" s="6">
         <v>8</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E86" s="6">
         <v>48</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F86" s="17">
         <v>3179.7</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G86" s="21">
         <f t="shared" si="0"/>
         <v>152625.59999999998</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16">
+      <c r="H86" s="16"/>
+      <c r="I86" s="16">
         <v>160</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J86" s="22">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K86" s="22">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T86" s="22">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="U31" s="17" t="s">
+      <c r="U86" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="V31" s="17">
+      <c r="V86" s="17">
         <v>120</v>
       </c>
-      <c r="W31" s="17">
+      <c r="W86" s="17">
         <v>1535.8</v>
       </c>
-      <c r="X31" s="17">
+      <c r="X86" s="17">
         <f t="shared" si="4"/>
         <v>184296</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="87" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>7</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B87" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C87" s="6">
         <v>20</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="6">
-        <v>120</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="E87" s="6">
+        <f>120-48</f>
+        <v>72</v>
+      </c>
+      <c r="F87" s="17">
         <v>4629.57</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G87" s="21">
         <f t="shared" si="0"/>
-        <v>555548.39999999991</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16">
+        <v>333329.03999999998</v>
+      </c>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16">
         <v>240</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J87" s="22">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K87" s="22">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T87" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="U32" s="17" t="s">
+      <c r="U87" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="V32" s="17">
+      <c r="V87" s="17">
         <v>60</v>
       </c>
-      <c r="W32" s="17">
+      <c r="W87" s="17">
         <v>2500.52</v>
       </c>
-      <c r="X32" s="17">
+      <c r="X87" s="17">
         <f t="shared" si="4"/>
         <v>150031.20000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="34" t="s">
+    <row r="88" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="18">
-        <f>SUM(G26:G32)</f>
-        <v>1704915.2999999998</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="T33" s="22">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="18">
+        <f>SUM(G81:G87)</f>
+        <v>1146767.7899999998</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="T88" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="U33" s="17" t="s">
+      <c r="U88" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="V33" s="17">
+      <c r="V88" s="17">
         <v>48</v>
       </c>
-      <c r="W33" s="17">
+      <c r="W88" s="17">
         <v>3179.7</v>
       </c>
-      <c r="X33" s="17">
+      <c r="X88" s="17">
         <f t="shared" si="4"/>
         <v>152625.59999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+    <row r="89" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="19">
-        <f>G33*7%</f>
-        <v>119344.071</v>
-      </c>
-      <c r="T34" s="22">
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="19">
+        <f>G88*7%</f>
+        <v>80273.745299999995</v>
+      </c>
+      <c r="T89" s="22">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="U34" s="17" t="s">
+      <c r="U89" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="V34" s="17">
+      <c r="V89" s="17">
         <v>120</v>
       </c>
-      <c r="W34" s="17">
+      <c r="W89" s="17">
         <v>4629.57</v>
       </c>
-      <c r="X34" s="17">
+      <c r="X89" s="17">
         <f t="shared" si="4"/>
         <v>555548.39999999991</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+    <row r="90" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="20">
-        <f>G33-G34</f>
-        <v>1585571.2289999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="20">
+        <f>G88-G89</f>
+        <v>1066494.0446999997</v>
+      </c>
+      <c r="H90" s="11">
+        <f>41*20/6</f>
+        <v>136.66666666666666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="19">
-        <f>G35*18%</f>
-        <v>285402.82121999998</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="19">
+        <f>G90*18%</f>
+        <v>191968.92804599996</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="20">
-        <f>G36+G35</f>
-        <v>1870974.0502199999</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16">
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="20">
+        <f>G91+G90</f>
+        <v>1258462.9727459997</v>
+      </c>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16">
         <v>600</v>
       </c>
-      <c r="J37" s="22">
-        <f>I37/20</f>
+      <c r="J92" s="22">
+        <f>I92/20</f>
         <v>30</v>
       </c>
-      <c r="K37" s="22">
-        <f>J37*6</f>
+      <c r="K92" s="22">
+        <f>J92*6</f>
         <v>180</v>
       </c>
-      <c r="X37" s="17">
-        <f>SUM(X28:X36)</f>
+      <c r="X92" s="17">
+        <f>SUM(X83:X91)</f>
         <v>1703438.7599999998</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16">
+    <row r="93" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16">
         <v>100</v>
       </c>
-      <c r="J38" s="22">
-        <f t="shared" ref="J38" si="5">I38/20</f>
+      <c r="J93" s="22">
+        <f t="shared" ref="J93" si="5">I93/20</f>
         <v>5</v>
       </c>
-      <c r="K38" s="22">
-        <f t="shared" ref="K38:K39" si="6">J38*6</f>
+      <c r="K93" s="22">
+        <f t="shared" ref="K93:K94" si="6">J93*6</f>
         <v>30</v>
       </c>
-      <c r="W38" s="24">
+      <c r="W93" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X38" s="17">
-        <f>X37*7%</f>
+      <c r="X93" s="17">
+        <f>X92*7%</f>
         <v>119240.7132</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16">
+    <row r="94" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16">
         <v>150</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J94" s="22">
         <v>8</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K94" s="22">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="X39" s="17">
-        <f>X37-X38</f>
+      <c r="X94" s="17">
+        <f>X92-X93</f>
         <v>1584198.0467999997</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="95" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="W40" s="25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="W95" s="25">
         <v>0.18</v>
       </c>
-      <c r="X40" s="17">
-        <f>X39*18%</f>
+      <c r="X95" s="17">
+        <f>X94*18%</f>
         <v>285155.64842399996</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="X41" s="17">
-        <f>X40+X39</f>
+    <row r="96" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="X96" s="17">
+        <f>X95+X94</f>
         <v>1869353.6952239997</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="T43" s="3">
+    <row r="97" spans="1:21" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="27">
+        <v>45799</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="T98" s="3">
         <f>570/6</f>
         <v>95</v>
       </c>
-      <c r="U43" s="3">
-        <f>T43*3.28</f>
+      <c r="U98" s="3">
+        <f>T98*3.28</f>
         <v>311.59999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="T44" s="3">
-        <f>T43/6</f>
+    <row r="99" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="T99" s="3">
+        <f>T98/6</f>
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="S45" s="3">
+    <row r="100" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="S100" s="3">
         <f>2200+110+660</f>
         <v>2970</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T100" s="3">
         <f>92*6</f>
         <v>552</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+    </row>
+    <row r="103" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+    </row>
+    <row r="104" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A104" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+    </row>
+    <row r="107" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="36"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>1</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="6">
+        <v>92</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="17">
+        <v>738.27</v>
+      </c>
+      <c r="G110" s="21">
+        <f t="shared" ref="G110:G116" si="7">F110*E110</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>160</v>
+      </c>
+      <c r="J110" s="38">
+        <f>I110/20*6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>2</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="6">
+        <v>28</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="6">
+        <v>30</v>
+      </c>
+      <c r="F111" s="17">
+        <v>984.87</v>
+      </c>
+      <c r="G111" s="21">
+        <f t="shared" si="7"/>
+        <v>29546.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>3</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="6">
+        <v>13</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="17">
+        <v>1146.55</v>
+      </c>
+      <c r="G112" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>4</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="6">
+        <v>20</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="17">
+        <v>1535.8</v>
+      </c>
+      <c r="G113" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>5</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="6">
+        <v>10</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="17">
+        <v>2500.52</v>
+      </c>
+      <c r="G114" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>6</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="6">
+        <v>8</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="6"/>
+      <c r="F115" s="17">
+        <v>3179.7</v>
+      </c>
+      <c r="G115" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>7</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="6">
+        <v>20</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="6">
+        <v>48</v>
+      </c>
+      <c r="F116" s="17">
+        <v>4629.57</v>
+      </c>
+      <c r="G116" s="21">
+        <f t="shared" si="7"/>
+        <v>222219.36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="18">
+        <f>SUM(G110:G116)</f>
+        <v>251765.46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="19">
+        <f>G117*7%</f>
+        <v>17623.582200000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="20">
+        <f>G117-G118</f>
+        <v>234141.87779999999</v>
+      </c>
+      <c r="J119" s="39">
+        <f>G121+G92</f>
+        <v>1534750.3885499998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="19">
+        <f>G119*18%</f>
+        <v>42145.538003999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="20">
+        <f>G120+G119</f>
+        <v>276287.41580399999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
+  <mergeCells count="18">
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A91:F91"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -3832,4 +4697,492 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C63D0-64D9-445B-8E45-BB65840E004B}">
+  <dimension ref="A14:H48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="27">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6">
+        <v>246</v>
+      </c>
+      <c r="F26" s="17">
+        <v>738.27</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" ref="G26:G32" si="0">F26*E26</f>
+        <v>181614.41999999998</v>
+      </c>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6">
+        <v>168</v>
+      </c>
+      <c r="F27" s="17">
+        <v>984.87</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="0"/>
+        <v>165458.16</v>
+      </c>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="6">
+        <v>78</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1146.55</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="0"/>
+        <v>89430.9</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>4</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="6">
+        <v>120</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1535.8</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="0"/>
+        <v>184296</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>5</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="6">
+        <v>60</v>
+      </c>
+      <c r="F30" s="17">
+        <v>2500.52</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" si="0"/>
+        <v>150031.20000000001</v>
+      </c>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>6</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="6">
+        <v>48</v>
+      </c>
+      <c r="F31" s="17">
+        <v>3179.7</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" si="0"/>
+        <v>152625.59999999998</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>7</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="6">
+        <v>120</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4629.57</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="0"/>
+        <v>555548.39999999991</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="18">
+        <f>SUM(G26:G32)</f>
+        <v>1479004.6799999997</v>
+      </c>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="19">
+        <f>G33*7%</f>
+        <v>103530.32759999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="20">
+        <f>G33-G34</f>
+        <v>1375474.3523999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="19">
+        <f>G35*18%</f>
+        <v>247585.38343199994</v>
+      </c>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="20">
+        <f>G36+G35</f>
+        <v>1623059.7358319997</v>
+      </c>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A34:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Running projects/EY 17th & 18th Floor - Dolmen Sky Tower Clifton Karachi/PO/001- Purchase order- for IIL pipe (EY + ABBOT + J outlet J icon).xlsx
+++ b/Running projects/EY 17th & 18th Floor - Dolmen Sky Tower Clifton Karachi/PO/001- Purchase order- for IIL pipe (EY + ABBOT + J outlet J icon).xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\EY 17th &amp; 18th Floor - Dolmen Sky Tower Clifton Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F4131-8F36-4850-9B6B-89F6D14DE7C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B4DFB-30CD-45FC-9148-FA8C0F8F706D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master PO" sheetId="1" r:id="rId1"/>
     <sheet name="Phase 1 Delivery" sheetId="2" r:id="rId2"/>
     <sheet name="actual received on phase 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Phase 2 Delivery" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Master PO'!$A$1:$G$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Phase 1 Delivery'!$A$1:$G$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Phase 2 Delivery'!$A$1:$G$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Master PO'!$17:$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Phase 1 Delivery'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Phase 2 Delivery'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="39">
   <si>
     <t>S No.</t>
   </si>
@@ -160,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">Supply of ERW Black Pipe Plain End </t>
+  </si>
+  <si>
+    <t>Supply of ERW Black Pipe Plain End - EY 17th Floor DMC Karachi</t>
   </si>
 </sst>
 </file>
@@ -453,15 +459,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -477,11 +476,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2136,6 +2142,334 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>183697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBAEA4A-5020-4539-B04E-95448BF861D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9620251" y="21069300"/>
+          <a:ext cx="838199" cy="783772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1108069</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C62D1D-46DA-4BE1-82A7-B712A4A2FCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1450969" y="219652"/>
+          <a:ext cx="4492630" cy="586798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1071232</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA662A75-52A7-480B-801C-ABF5B52E7E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="533400" y="76200"/>
+          <a:ext cx="880732" cy="749658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5637680-E8CA-4200-BD09-22E910834EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="6981825"/>
+          <a:ext cx="847725" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134351</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0936F7AC-3BF7-402F-BEEC-6A353EF58863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="2209800"/>
+          <a:ext cx="7173326" cy="3600953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2452,48 +2786,48 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
@@ -2714,12 +3048,12 @@
     <row r="23" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="18">
         <f>SUM(G18:G22)</f>
         <v>3010250.76</v>
@@ -2733,15 +3067,15 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
@@ -3087,12 +3421,12 @@
     <row r="34" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="18">
         <f>SUM(G27:G33)</f>
         <v>1399994.4</v>
@@ -3132,15 +3466,15 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
@@ -3292,12 +3626,12 @@
     <row r="41" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="18">
         <f>SUM(G38:G40)</f>
         <v>384654.06</v>
@@ -3315,12 +3649,12 @@
     <row r="42" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="18">
         <f>G41+G34+G23</f>
         <v>4794899.22</v>
@@ -3333,14 +3667,14 @@
       </c>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="19">
         <f>G42*7%</f>
         <v>335642.94540000003</v>
@@ -3349,14 +3683,14 @@
       <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="20">
         <f>G42-G43</f>
         <v>4459256.2746000001</v>
@@ -3365,14 +3699,14 @@
       <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="19">
         <f>G44*18%</f>
         <v>802666.12942799996</v>
@@ -3381,14 +3715,14 @@
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="20">
         <f>G45+G44</f>
         <v>5261922.4040280003</v>
@@ -3405,6 +3739,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A25:G25"/>
@@ -3412,13 +3753,6 @@
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -3434,7 +3768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D7FCBA-AEE4-436A-879A-58DB68EA8EDF}">
   <dimension ref="A69:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
@@ -3560,15 +3894,15 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73" spans="1:24" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -3586,13 +3920,13 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74" spans="1:24" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3610,15 +3944,15 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75" spans="1:24" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -3687,15 +4021,15 @@
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:24" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="36"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="35"/>
     </row>
     <row r="80" spans="1:24" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
@@ -4063,12 +4397,12 @@
     <row r="88" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
       <c r="G88" s="18">
         <f>SUM(G81:G87)</f>
         <v>1146767.7899999998</v>
@@ -4094,14 +4428,14 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
       <c r="G89" s="19">
         <f>G88*7%</f>
         <v>80273.745299999995</v>
@@ -4125,14 +4459,14 @@
       </c>
     </row>
     <row r="90" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
       <c r="G90" s="20">
         <f>G88-G89</f>
         <v>1066494.0446999997</v>
@@ -4143,14 +4477,14 @@
       </c>
     </row>
     <row r="91" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
       <c r="G91" s="19">
         <f>G90*18%</f>
         <v>191968.92804599996</v>
@@ -4159,14 +4493,14 @@
       <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
       <c r="G92" s="20">
         <f>G91+G90</f>
         <v>1258462.9727459997</v>
@@ -4355,35 +4689,35 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
     </row>
     <row r="103" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
     </row>
     <row r="104" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
     </row>
     <row r="107" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
@@ -4391,15 +4725,15 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="36"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="35"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
@@ -4448,7 +4782,7 @@
       <c r="I110" s="11">
         <v>160</v>
       </c>
-      <c r="J110" s="38">
+      <c r="J110" s="29">
         <f>I110/20*6</f>
         <v>48</v>
       </c>
@@ -4592,72 +4926,72 @@
     <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
       <c r="G117" s="18">
         <f>SUM(G110:G116)</f>
         <v>251765.46</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
       <c r="G118" s="19">
         <f>G117*7%</f>
         <v>17623.582200000001</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
       <c r="G119" s="20">
         <f>G117-G118</f>
         <v>234141.87779999999</v>
       </c>
-      <c r="J119" s="39">
+      <c r="J119" s="30">
         <f>G121+G92</f>
         <v>1534750.3885499998</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
       <c r="G120" s="19">
         <f>G119*18%</f>
         <v>42145.538003999995</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
       <c r="G121" s="20">
         <f>G120+G119</f>
         <v>276287.41580399999</v>
@@ -4670,6 +5004,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A91:F91"/>
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="A119:F119"/>
     <mergeCell ref="A120:F120"/>
@@ -4679,15 +5022,6 @@
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A108:G108"/>
     <mergeCell ref="C117:F117"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A91:F91"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -4765,35 +5099,35 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:8" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:8" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -4817,15 +5151,15 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:8" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -5015,12 +5349,12 @@
     <row r="33" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="18">
         <f>SUM(G26:G32)</f>
         <v>1479004.6799999997</v>
@@ -5028,42 +5362,42 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="19">
         <f>G33*7%</f>
         <v>103530.32759999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="20">
         <f>G33-G34</f>
         <v>1375474.3523999997</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="19">
         <f>G35*18%</f>
         <v>247585.38343199994</v>
@@ -5071,14 +5405,14 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="20">
         <f>G36+G35</f>
         <v>1623059.7358319997</v>
@@ -5185,4 +5519,544 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F7B198-0FB9-432C-9AE9-518AD74FCCD4}">
+  <dimension ref="A11:S36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
+    <col min="10" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="27">
+        <v>45806</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" s="11" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:19" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <v>92</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6">
+        <v>540</v>
+      </c>
+      <c r="F24" s="17">
+        <v>738.27</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" ref="G24:G28" si="0">F24*E24</f>
+        <v>398665.8</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6">
+        <v>120</v>
+      </c>
+      <c r="F25" s="17">
+        <v>984.87</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
+        <v>118184.4</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6">
+        <v>138</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1146.55</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="0"/>
+        <v>158223.9</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>4</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="6">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6">
+        <v>66</v>
+      </c>
+      <c r="F27" s="17">
+        <v>1535.8</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="0"/>
+        <v>101362.8</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>5</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="6">
+        <v>78</v>
+      </c>
+      <c r="F28" s="17">
+        <v>3179.7</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="0"/>
+        <v>248016.59999999998</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:19" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="18">
+        <f>SUM(G24:G28)</f>
+        <v>1024453.5</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="19">
+        <f>G29*7%</f>
+        <v>71711.74500000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="20">
+        <f>G29-G30</f>
+        <v>952741.755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="19">
+        <f>G31*18%</f>
+        <v>171493.5159</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="20">
+        <f>G32+G31</f>
+        <v>1124235.2708999999</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A30:F30"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Running projects/EY 17th & 18th Floor - Dolmen Sky Tower Clifton Karachi/PO/001- Purchase order- for IIL pipe (EY + ABBOT + J outlet J icon).xlsx
+++ b/Running projects/EY 17th & 18th Floor - Dolmen Sky Tower Clifton Karachi/PO/001- Purchase order- for IIL pipe (EY + ABBOT + J outlet J icon).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\EY 17th &amp; 18th Floor - Dolmen Sky Tower Clifton Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B4DFB-30CD-45FC-9148-FA8C0F8F706D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A031E051-A5AE-43A9-AAFD-D086752593DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master PO" sheetId="1" r:id="rId1"/>
@@ -461,6 +461,15 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -475,15 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2786,15 +2786,15 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
@@ -2806,28 +2806,28 @@
       <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
@@ -3048,12 +3048,12 @@
     <row r="23" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="18">
         <f>SUM(G18:G22)</f>
         <v>3010250.76</v>
@@ -3067,15 +3067,15 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
@@ -3421,12 +3421,12 @@
     <row r="34" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="18">
         <f>SUM(G27:G33)</f>
         <v>1399994.4</v>
@@ -3466,15 +3466,15 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
@@ -3626,12 +3626,12 @@
     <row r="41" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="18">
         <f>SUM(G38:G40)</f>
         <v>384654.06</v>
@@ -3649,12 +3649,12 @@
     <row r="42" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="18">
         <f>G41+G34+G23</f>
         <v>4794899.22</v>
@@ -3667,14 +3667,14 @@
       </c>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="19">
         <f>G42*7%</f>
         <v>335642.94540000003</v>
@@ -3683,14 +3683,14 @@
       <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="20">
         <f>G42-G43</f>
         <v>4459256.2746000001</v>
@@ -3699,14 +3699,14 @@
       <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="19">
         <f>G44*18%</f>
         <v>802666.12942799996</v>
@@ -3715,14 +3715,14 @@
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="20">
         <f>G45+G44</f>
         <v>5261922.4040280003</v>
@@ -3739,6 +3739,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="C23:F23"/>
@@ -3746,13 +3753,6 @@
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -3768,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D7FCBA-AEE4-436A-879A-58DB68EA8EDF}">
   <dimension ref="A69:X124"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3894,15 +3894,15 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73" spans="1:24" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -3944,15 +3944,15 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75" spans="1:24" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -4021,15 +4021,15 @@
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:24" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="35"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="38"/>
     </row>
     <row r="80" spans="1:24" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
@@ -4397,12 +4397,12 @@
     <row r="88" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
       <c r="G88" s="18">
         <f>SUM(G81:G87)</f>
         <v>1146767.7899999998</v>
@@ -4428,14 +4428,14 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
       <c r="G89" s="19">
         <f>G88*7%</f>
         <v>80273.745299999995</v>
@@ -4459,14 +4459,14 @@
       </c>
     </row>
     <row r="90" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
       <c r="G90" s="20">
         <f>G88-G89</f>
         <v>1066494.0446999997</v>
@@ -4477,14 +4477,14 @@
       </c>
     </row>
     <row r="91" spans="1:24" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
       <c r="G91" s="19">
         <f>G90*18%</f>
         <v>191968.92804599996</v>
@@ -4493,14 +4493,14 @@
       <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
       <c r="G92" s="20">
         <f>G91+G90</f>
         <v>1258462.9727459997</v>
@@ -4689,15 +4689,15 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
     </row>
     <row r="103" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
@@ -4709,15 +4709,15 @@
       <c r="G103" s="39"/>
     </row>
     <row r="104" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
     </row>
     <row r="107" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
@@ -4725,15 +4725,15 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="35"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="38"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
@@ -4926,40 +4926,40 @@
     <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
       <c r="G117" s="18">
         <f>SUM(G110:G116)</f>
         <v>251765.46</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
       <c r="G118" s="19">
         <f>G117*7%</f>
         <v>17623.582200000001</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
       <c r="G119" s="20">
         <f>G117-G118</f>
         <v>234141.87779999999</v>
@@ -4970,28 +4970,28 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
       <c r="G120" s="19">
         <f>G119*18%</f>
         <v>42145.538003999995</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
       <c r="G121" s="20">
         <f>G120+G119</f>
         <v>276287.41580399999</v>
@@ -5004,6 +5004,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="C117:F117"/>
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="C88:F88"/>
     <mergeCell ref="A89:F89"/>
@@ -5013,15 +5022,6 @@
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="A79:G79"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="C117:F117"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -5037,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C63D0-64D9-445B-8E45-BB65840E004B}">
   <dimension ref="A14:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -5099,15 +5099,15 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -5119,15 +5119,15 @@
       <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:8" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:8" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -5151,15 +5151,15 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:8" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -5349,12 +5349,12 @@
     <row r="33" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="18">
         <f>SUM(G26:G32)</f>
         <v>1479004.6799999997</v>
@@ -5362,42 +5362,42 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="19">
         <f>G33*7%</f>
         <v>103530.32759999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="20">
         <f>G33-G34</f>
         <v>1375474.3523999997</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="19">
         <f>G35*18%</f>
         <v>247585.38343199994</v>
@@ -5405,14 +5405,14 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
       <c r="G37" s="20">
         <f>G36+G35</f>
         <v>1623059.7358319997</v>
@@ -5525,7 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F7B198-0FB9-432C-9AE9-518AD74FCCD4}">
   <dimension ref="A11:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
@@ -5647,15 +5647,15 @@
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -5687,15 +5687,15 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -5749,15 +5749,15 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:19" s="11" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
@@ -5927,12 +5927,12 @@
     <row r="29" spans="1:19" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="18">
         <f>SUM(G24:G28)</f>
         <v>1024453.5</v>
@@ -5941,42 +5941,42 @@
       <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="19">
         <f>G29*7%</f>
         <v>71711.74500000001</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="20">
         <f>G29-G30</f>
         <v>952741.755</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="19">
         <f>G31*18%</f>
         <v>171493.5159</v>
@@ -5985,14 +5985,14 @@
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="20">
         <f>G32+G31</f>
         <v>1124235.2708999999</v>
